--- a/1/2/Indicadores Bursátiles 1989 a 2021 - Mensual.xlsx
+++ b/1/2/Indicadores Bursátiles 1989 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
   <si>
     <t>Serie</t>
   </si>
@@ -1193,6 +1193,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B392"/>
+  <dimension ref="A1:B393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4692,6 +4695,14 @@
         <v>4252</v>
       </c>
     </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393">
+        <v>4491.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1/2/Indicadores Bursátiles 1989 a 2021 - Mensual.xlsx
+++ b/1/2/Indicadores Bursátiles 1989 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
   <si>
     <t>Serie</t>
   </si>
@@ -1196,6 +1196,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B393"/>
+  <dimension ref="A1:B394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4703,6 +4706,14 @@
         <v>4491.6</v>
       </c>
     </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394">
+        <v>4362.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1/2/Indicadores Bursátiles 1989 a 2021 - Mensual.xlsx
+++ b/1/2/Indicadores Bursátiles 1989 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="396">
   <si>
     <t>Serie</t>
   </si>
@@ -1199,6 +1199,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B394"/>
+  <dimension ref="A1:B395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4714,6 +4717,14 @@
         <v>4362.6</v>
       </c>
     </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395">
+        <v>4092.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
